--- a/Student info.xlsx
+++ b/Student info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\Desktop\codingal course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF42F4-6965-4CEF-9102-F076CEC4E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE6E6AA-A106-405D-868F-0C83ACA28DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,26 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>Batches</t>
   </si>
@@ -231,13 +240,31 @@
   </si>
   <si>
     <t>M2-L4</t>
+  </si>
+  <si>
+    <t>Bhargav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arushi </t>
+  </si>
+  <si>
+    <t>Atiksh</t>
+  </si>
+  <si>
+    <t>Divyansh</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Conversions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +280,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -367,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -393,6 +432,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -691,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,9 +747,10 @@
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -770,26 +812,29 @@
         <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -814,13 +859,19 @@
       <c r="S2" s="6">
         <v>45748</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="2"/>
       <c r="H3" s="22">
         <v>45718</v>
@@ -833,9 +884,18 @@
       <c r="S3" s="6">
         <v>45749</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -866,9 +926,15 @@
       <c r="S4" s="6">
         <v>45750</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +957,15 @@
       <c r="S5" s="6">
         <v>45751</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,13 +988,28 @@
       <c r="S6" s="6">
         <v>45752</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="H7" s="22">
+      <c r="H7" s="24">
         <v>45722</v>
       </c>
       <c r="I7" s="19"/>
@@ -944,7 +1031,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1065,20 @@
       <c r="S8" s="6">
         <v>45754</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1013,9 +1112,27 @@
       <c r="S9" s="6">
         <v>45755</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1038,9 +1155,21 @@
       <c r="S10" s="6">
         <v>45756</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1067,9 +1196,24 @@
       <c r="S11" s="6">
         <v>45757</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
@@ -1090,8 +1234,8 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1114,8 +1258,8 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1143,8 +1287,8 @@
         <v>45760</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1175,8 +1319,8 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1346,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1365,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1547,9 +1691,31 @@
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="K32" s="23">
+        <v>2</v>
+      </c>
       <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>SUM(J1:J32)</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>SUM(L1:L32)</f>
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <f>SUM(M1:M32)</f>
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <f>SUM(N1:N28)</f>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1568,7 +1734,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,19 +1749,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1612,7 +1778,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1623,7 +1789,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1798,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1643,111 +1809,120 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
+      <c r="A14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
+      <c r="A15" s="28"/>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
@@ -1755,7 +1930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
@@ -1766,7 +1941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
         <v>46</v>
@@ -1775,7 +1950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>56</v>
@@ -1784,7 +1959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>48</v>
       </c>
@@ -1795,7 +1970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1805,8 +1980,11 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>60</v>
@@ -1818,9 +1996,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="C2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB8AA56-0276-453C-8DEE-38B4E56B3B04}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,47 +2018,87 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Student info.xlsx
+++ b/Student info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\Desktop\codingal course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE6E6AA-A106-405D-868F-0C83ACA28DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71092903-CB5A-4D18-97B7-4E070C16333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>Batches</t>
   </si>
@@ -59,15 +50,9 @@
     <t>Course Taken</t>
   </si>
   <si>
-    <t>Last Class Taken</t>
-  </si>
-  <si>
     <t>Tazkeer</t>
   </si>
   <si>
-    <t>Hasan</t>
-  </si>
-  <si>
     <t>Taijhiro</t>
   </si>
   <si>
@@ -170,18 +155,9 @@
     <t>1:5cc</t>
   </si>
   <si>
-    <t>M13-L3</t>
-  </si>
-  <si>
-    <t>M1-L1</t>
-  </si>
-  <si>
     <t>Tista</t>
   </si>
   <si>
-    <t>M1-L2</t>
-  </si>
-  <si>
     <t>Batch8</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>Vivaan</t>
   </si>
   <si>
-    <t>M1-L3</t>
-  </si>
-  <si>
     <t>Priyanshu</t>
   </si>
   <si>
@@ -224,24 +197,12 @@
     <t>NIl</t>
   </si>
   <si>
-    <t>M1-L5</t>
-  </si>
-  <si>
     <t>Aryan</t>
   </si>
   <si>
     <t>Adanya</t>
   </si>
   <si>
-    <t>M2-L5</t>
-  </si>
-  <si>
-    <t>M1-L4</t>
-  </si>
-  <si>
-    <t>M2-L4</t>
-  </si>
-  <si>
     <t>Bhargav</t>
   </si>
   <si>
@@ -258,6 +219,24 @@
   </si>
   <si>
     <t>Conversions</t>
+  </si>
+  <si>
+    <t>Batch10</t>
+  </si>
+  <si>
+    <t>Johari</t>
+  </si>
+  <si>
+    <t>Pogula Srujan</t>
+  </si>
+  <si>
+    <t>Atiksh Sharma</t>
+  </si>
+  <si>
+    <t>Sheikh Labeeb bin Reza</t>
+  </si>
+  <si>
+    <t>Aminath Hajwa</t>
   </si>
 </sst>
 </file>
@@ -287,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +357,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -406,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -434,6 +425,20 @@
     <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -452,6 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,25 +738,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="18" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -760,234 +765,229 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
+      <c r="G1" t="s">
+        <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>30</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
+      <c r="R1" t="s">
+        <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="22">
+      <c r="C2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="22">
         <v>45717</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="13">
-        <v>1</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="13">
-        <v>2</v>
-      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="S2" s="6">
+      <c r="R2" s="6">
         <v>45748</v>
       </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="2"/>
-      <c r="H3" s="22">
+      <c r="C3" s="35"/>
+      <c r="G3" s="22">
         <v>45718</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="S3" s="6">
+      <c r="R3" s="6">
         <v>45749</v>
       </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
       <c r="W3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22">
+        <v>45719</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="R4" s="6">
+        <v>45750</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="22">
-        <v>45719</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="6">
-        <v>45750</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="H5" s="22">
+      <c r="G5" s="22">
         <v>45720</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="S5" s="6">
+      <c r="R5" s="24">
         <v>45751</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="1" t="s">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="H6" s="22">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="22">
         <v>45721</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="S6" s="6">
+      <c r="R6" s="24">
         <v>45752</v>
       </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
       <c r="V6">
         <v>1</v>
       </c>
@@ -995,386 +995,382 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22">
         <v>45722</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16"/>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="12">
+        <v>2</v>
+      </c>
       <c r="N7" s="12">
-        <v>2</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="6">
+      <c r="R7" s="24">
         <v>45753</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="22">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="22">
         <v>45723</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
       <c r="L8" s="13">
         <v>1</v>
       </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="6">
+      <c r="R8" s="24">
         <v>45754</v>
       </c>
-      <c r="T8">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="G9" s="22">
         <v>45724</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
       <c r="J9" s="13">
         <v>1</v>
       </c>
-      <c r="K9" s="13">
-        <v>1</v>
-      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="6">
+      <c r="R9" s="24">
         <v>45755</v>
       </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="C10" s="8"/>
+      <c r="G10" s="22">
         <v>45725</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="S10" s="6">
+      <c r="R10" s="24">
         <v>45756</v>
       </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="H11" s="22">
+      <c r="G11" s="22">
         <v>45726</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="7">
-        <v>2</v>
-      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="S11" s="6">
+      <c r="R11" s="24">
         <v>45757</v>
       </c>
-      <c r="T11">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24">
+        <v>45727</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="6">
+        <v>45758</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="H12" s="6">
-        <v>45727</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7">
-        <v>2</v>
-      </c>
-      <c r="S12" s="6">
-        <v>45758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="9"/>
+      <c r="G13" s="28">
+        <v>45728</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30">
+        <v>1</v>
+      </c>
+      <c r="M13" s="31">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="G14" s="22">
+        <v>45729</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="H13" s="6">
-        <v>45728</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="H14" s="6">
-        <v>45729</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="13">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6">
-        <v>45760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="C15" s="9"/>
+      <c r="G15" s="6">
         <v>45730</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6">
+      <c r="H15" s="14"/>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
         <v>45761</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
       <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="G16" s="6">
+        <v>45731</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="R16" s="6">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="H16" s="6">
-        <v>45731</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7">
-        <v>4</v>
-      </c>
-      <c r="S16" s="6">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="H17" s="6">
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6">
         <v>45732</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="S17" s="6">
+      <c r="R17" s="6">
         <v>45763</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="H18" s="6">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="G18" s="6">
         <v>45733</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
       <c r="J18" s="13">
         <v>1</v>
       </c>
@@ -1384,191 +1380,187 @@
       <c r="L18" s="13">
         <v>1</v>
       </c>
-      <c r="M18" s="13">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2</v>
-      </c>
-      <c r="S18" s="6">
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="R18" s="6">
         <v>45764</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>31</v>
-      </c>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="G19" s="6">
         <v>45734</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7">
+      <c r="M19" s="7">
         <v>3</v>
       </c>
-      <c r="S19" s="6">
+      <c r="R19" s="6">
         <v>45765</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="H20" s="6">
+      <c r="G20" s="6">
         <v>45735</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
       <c r="K20" s="13">
         <v>1</v>
       </c>
       <c r="L20" s="13">
         <v>1</v>
       </c>
-      <c r="M20" s="13">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="S20" s="6">
+      <c r="R20" s="6">
         <v>45766</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="H21" s="6">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6">
         <v>45736</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
       <c r="K21" s="13">
         <v>1</v>
       </c>
       <c r="L21" s="13">
         <v>1</v>
       </c>
-      <c r="M21" s="13">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="M21" s="7">
         <v>5</v>
       </c>
-      <c r="S21" s="6">
+      <c r="R21" s="6">
         <v>45767</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="6">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6">
         <v>45737</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="13">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13">
-        <v>1</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-      <c r="S22" s="6">
+      <c r="H22" s="14"/>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6">
         <v>45768</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="6">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="G23" s="6">
         <v>45738</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="6">
+      <c r="H23" s="14"/>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
         <v>45769</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="H24" s="6">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6">
         <v>45739</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="S24" s="6">
+      <c r="R24" s="6">
         <v>45770</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="6">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="G25" s="6">
         <v>45740</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
       <c r="J25" s="13">
         <v>1</v>
       </c>
@@ -1578,152 +1570,160 @@
       <c r="L25" s="13">
         <v>1</v>
       </c>
-      <c r="M25" s="13">
-        <v>1</v>
-      </c>
-      <c r="S25" s="6">
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="R25" s="6">
         <v>45771</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="6">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="G26" s="6">
         <v>45741</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="13">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2</v>
-      </c>
-      <c r="S26" s="6">
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="R26" s="6">
         <v>45772</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="6">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="G27" s="6">
         <v>45742</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="13">
-        <v>1</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="13">
-        <v>2</v>
-      </c>
-      <c r="S27" s="6">
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="13">
+        <v>2</v>
+      </c>
+      <c r="R27" s="6">
         <v>45773</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="6">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G28" s="6">
         <v>45743</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="13">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="S28" s="6">
+      <c r="H28" s="14"/>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
         <v>45774</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="6">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G29" s="6">
         <v>45744</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13">
-        <v>2</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="S29" s="6">
+      <c r="K29" s="13">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="R29" s="6">
         <v>45775</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="6">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G30" s="6">
         <v>45745</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="13">
-        <v>1</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13">
-        <v>1</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="S30" s="6">
+      <c r="H30" s="14"/>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="R30" s="6">
         <v>45776</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="6">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G31" s="6">
         <v>45746</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="S31" s="6">
+      <c r="R31" s="6">
         <v>45777</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="6">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G32" s="6">
         <v>45747</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23">
-        <v>2</v>
-      </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="23">
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="23">
+        <v>2</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <f>SUM(J1:J32)</f>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <f>SUM(I1:I32)</f>
         <v>10</v>
+      </c>
+      <c r="K33">
+        <f>SUM(K1:K32)</f>
+        <v>17</v>
       </c>
       <c r="L33">
         <f>SUM(L1:L32)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <f>SUM(M1:M32)</f>
-        <v>16</v>
-      </c>
-      <c r="N33">
-        <f>SUM(N1:N28)</f>
-        <v>31</v>
+        <f>SUM(M1:M28)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1731,39 +1731,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C0838-86DA-4D8D-B5C7-CECDB914A541}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1771,226 +1771,276 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="37"/>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="8" t="s">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="8" t="s">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="8" t="s">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="9" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="B19" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2007,94 +2057,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB8AA56-0276-453C-8DEE-38B4E56B3B04}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A5" sqref="A5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="B4" s="25">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="B7" s="25">
+        <v>45737</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="B9" s="25">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45753</v>
       </c>
     </row>
   </sheetData>

--- a/Student info.xlsx
+++ b/Student info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\Desktop\codingal course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7B60F-2A7A-4A01-8858-B9283FF9D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D75F5D-5F4C-4B2E-8DB4-C20B3DDDE6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
   <si>
     <t>Batches</t>
   </si>
@@ -311,13 +311,103 @@
     <t>%</t>
   </si>
   <si>
-    <t>Had 7 conversions from last 30 completed trial classes from above mentioned date.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Students </t>
   </si>
   <si>
     <t>Conv date</t>
+  </si>
+  <si>
+    <t>Had 7 conversions from last 30 completed trial students from above mentioned date.</t>
+  </si>
+  <si>
+    <t>Had 6 conversions from last 30 completed trial students from above mentioned date.</t>
+  </si>
+  <si>
+    <t>Batch12</t>
+  </si>
+  <si>
+    <t>Ahmed farooq</t>
+  </si>
+  <si>
+    <t>Adwait Rajeev Menon K</t>
+  </si>
+  <si>
+    <t>Darshith</t>
+  </si>
+  <si>
+    <t>Mikaeel-1</t>
+  </si>
+  <si>
+    <t>Mehmil-1</t>
+  </si>
+  <si>
+    <t>Johan-2</t>
+  </si>
+  <si>
+    <t>Divyans-2</t>
+  </si>
+  <si>
+    <t>Aminath-2</t>
+  </si>
+  <si>
+    <t>Adrija-1</t>
+  </si>
+  <si>
+    <t>Ashmita-1</t>
+  </si>
+  <si>
+    <t>B1-1</t>
+  </si>
+  <si>
+    <t>B8-1</t>
+  </si>
+  <si>
+    <t>B7-1, B6-1</t>
+  </si>
+  <si>
+    <t>Ian Mwenda</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>B9-1</t>
+  </si>
+  <si>
+    <t>B11-1</t>
+  </si>
+  <si>
+    <t>B12-1</t>
+  </si>
+  <si>
+    <t>B10-1</t>
+  </si>
+  <si>
+    <t>B7-1,B12-1</t>
+  </si>
+  <si>
+    <t>B6-1</t>
+  </si>
+  <si>
+    <t>B2-1</t>
+  </si>
+  <si>
+    <t>B5, B4,B8-3</t>
+  </si>
+  <si>
+    <t>B5-1</t>
+  </si>
+  <si>
+    <t>Jaelynn-1</t>
+  </si>
+  <si>
+    <t>B4-1, B3-1</t>
+  </si>
+  <si>
+    <t>Vikranta</t>
   </si>
 </sst>
 </file>
@@ -347,7 +437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +564,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -582,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -621,11 +717,56 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -639,55 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,11 +1074,12 @@
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.21875" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -996,37 +1089,37 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="35" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="13" t="s">
@@ -1062,18 +1155,51 @@
       <c r="AC1" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="AE1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="49">
         <v>45717</v>
       </c>
       <c r="H2" s="17"/>
@@ -1085,11 +1211,11 @@
       <c r="L2" s="11">
         <v>2</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="50"/>
       <c r="S2" s="12">
         <v>45748</v>
       </c>
@@ -1109,14 +1235,27 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="AE2" s="12">
+        <v>45778</v>
+      </c>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="G3" s="62">
+      <c r="C3" s="62"/>
+      <c r="G3" s="49">
         <v>45718</v>
       </c>
       <c r="H3" s="17"/>
@@ -1124,11 +1263,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="48"/>
+      <c r="Q3" s="41"/>
       <c r="S3" s="12">
         <v>45749</v>
       </c>
@@ -1148,8 +1283,21 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE3" s="12">
+        <v>45779</v>
+      </c>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1307,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="49">
         <v>45719</v>
       </c>
       <c r="H4" s="17"/>
@@ -1169,13 +1317,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="18"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63">
-        <v>1</v>
-      </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="50"/>
       <c r="S4" s="12">
         <v>45750</v>
       </c>
@@ -1193,14 +1341,27 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE4" s="12">
+        <v>45780</v>
+      </c>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="G5" s="62">
+      <c r="G5" s="49">
         <v>45720</v>
       </c>
       <c r="H5" s="17"/>
@@ -1208,13 +1369,13 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="63">
-        <v>1</v>
-      </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="50"/>
       <c r="S5" s="21">
         <v>45751</v>
       </c>
@@ -1232,8 +1393,21 @@
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE5" s="12">
+        <v>45781</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1417,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="49">
         <v>45721</v>
       </c>
       <c r="H6" s="17"/>
@@ -1253,11 +1427,11 @@
       <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="50"/>
       <c r="S6" s="21">
         <v>45752</v>
       </c>
@@ -1281,8 +1455,21 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="13"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE6" s="12">
+        <v>45782</v>
+      </c>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1479,7 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="49">
         <v>45722</v>
       </c>
       <c r="H7" s="17"/>
@@ -1302,15 +1489,15 @@
         <v>1</v>
       </c>
       <c r="L7" s="14"/>
-      <c r="M7" s="65">
+      <c r="M7" s="51">
         <v>2</v>
       </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65">
-        <v>1</v>
-      </c>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51">
+        <v>1</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
       <c r="S7" s="21">
         <v>45753</v>
       </c>
@@ -1324,8 +1511,21 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE7" s="12">
+        <v>45783</v>
+      </c>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1535,7 @@
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="49">
         <v>45723</v>
       </c>
       <c r="H8" s="17"/>
@@ -1347,13 +1547,13 @@
       <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63">
-        <v>1</v>
-      </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="64"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="50"/>
       <c r="S8" s="21">
         <v>45754</v>
       </c>
@@ -1375,14 +1575,27 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE8" s="12">
+        <v>45784</v>
+      </c>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="G9" s="62">
+      <c r="G9" s="49">
         <v>45724</v>
       </c>
       <c r="H9" s="17"/>
@@ -1394,15 +1607,15 @@
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="63">
-        <v>1</v>
-      </c>
-      <c r="N9" s="63">
-        <v>1</v>
-      </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="50"/>
       <c r="S9" s="21">
         <v>45755</v>
       </c>
@@ -1422,20 +1635,33 @@
       <c r="AA9" s="28">
         <v>1</v>
       </c>
-      <c r="AB9" s="28">
-        <v>2</v>
+      <c r="AB9" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="AC9" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE9" s="12">
+        <v>45785</v>
+      </c>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="G10" s="62">
+      <c r="G10" s="49">
         <v>45725</v>
       </c>
       <c r="H10" s="12"/>
@@ -1443,11 +1669,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="41"/>
       <c r="S10" s="21">
         <v>45756</v>
       </c>
@@ -1469,14 +1691,27 @@
       </c>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE10" s="12">
+        <v>45786</v>
+      </c>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="G11" s="62">
+      <c r="G11" s="49">
         <v>45726</v>
       </c>
       <c r="H11" s="17"/>
@@ -1488,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="63">
+      <c r="M11" s="6">
         <v>2</v>
       </c>
-      <c r="N11" s="63"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="67"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="53"/>
       <c r="S11" s="21">
         <v>45757</v>
       </c>
@@ -1514,13 +1749,26 @@
       </c>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
-      <c r="AB11" s="28">
-        <v>2</v>
+      <c r="AB11" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="AC11" s="13"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="AE11" s="12">
+        <v>45787</v>
+      </c>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1529,7 +1777,7 @@
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="36">
         <v>45727</v>
       </c>
       <c r="H12" s="21"/>
@@ -1537,13 +1785,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="44">
+      <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="48"/>
+      <c r="N12" s="2"/>
+      <c r="Q12" s="41"/>
       <c r="S12" s="12">
         <v>45758</v>
       </c>
@@ -1565,14 +1811,27 @@
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="AE12" s="12">
+        <v>45788</v>
+      </c>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="G13" s="68">
+      <c r="G13" s="54">
         <v>45728</v>
       </c>
       <c r="H13" s="23"/>
@@ -1582,13 +1841,11 @@
       <c r="L13" s="24">
         <v>1</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="55">
         <v>2</v>
       </c>
-      <c r="N13" s="69"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="48"/>
+      <c r="N13" s="55"/>
+      <c r="Q13" s="41"/>
       <c r="S13" s="12">
         <v>45759</v>
       </c>
@@ -1610,14 +1867,27 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="AE13" s="12">
+        <v>45789</v>
+      </c>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="G14" s="62">
+      <c r="G14" s="49">
         <v>45729</v>
       </c>
       <c r="H14" s="12"/>
@@ -1631,17 +1901,16 @@
       <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="6">
         <v>2</v>
       </c>
-      <c r="N14" s="63">
-        <v>1</v>
-      </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="48"/>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="41"/>
       <c r="S14" s="12">
         <v>45760</v>
       </c>
@@ -1655,14 +1924,27 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="AE14" s="12">
+        <v>45790</v>
+      </c>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15" s="63"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="G15" s="70">
+      <c r="G15" s="56">
         <v>45730</v>
       </c>
       <c r="H15" s="12"/>
@@ -1674,15 +1956,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50">
-        <v>1</v>
-      </c>
-      <c r="O15" s="63">
-        <v>1</v>
-      </c>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="48"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="41"/>
       <c r="S15" s="12">
         <v>45761</v>
       </c>
@@ -1708,14 +1988,27 @@
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="AE15" s="12">
+        <v>45791</v>
+      </c>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
       <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="G16" s="70">
+      <c r="G16" s="56">
         <v>45731</v>
       </c>
       <c r="H16" s="12"/>
@@ -1727,13 +2020,11 @@
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
-      <c r="M16" s="63">
+      <c r="M16" s="6">
         <v>4</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="48"/>
+      <c r="N16" s="6"/>
+      <c r="Q16" s="41"/>
       <c r="S16" s="12">
         <v>45762</v>
       </c>
@@ -1751,8 +2042,21 @@
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE16" s="12">
+        <v>45792</v>
+      </c>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1762,7 +2066,7 @@
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="56">
         <v>45732</v>
       </c>
       <c r="H17" s="12"/>
@@ -1770,32 +2074,49 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="41"/>
       <c r="S17" s="12">
         <v>45763</v>
       </c>
       <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="U17" s="29">
+        <v>2</v>
+      </c>
       <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="W17" s="29">
+        <v>1</v>
+      </c>
+      <c r="X17" s="29">
+        <v>2</v>
+      </c>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="AB17" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="AC17" s="13"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE17" s="12">
+        <v>45793</v>
+      </c>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="G18" s="70">
+      <c r="G18" s="56">
         <v>45733</v>
       </c>
       <c r="H18" s="12"/>
@@ -1811,34 +2132,53 @@
       <c r="L18" s="11">
         <v>1</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="6">
         <v>2</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="48"/>
+      <c r="N18" s="6"/>
+      <c r="Q18" s="41"/>
       <c r="S18" s="12">
         <v>45764</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="T18" s="29">
+        <v>1</v>
+      </c>
+      <c r="U18" s="29">
+        <v>1</v>
+      </c>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="X18" s="29">
+        <v>2</v>
+      </c>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
+      <c r="AA18" s="29">
+        <v>1</v>
+      </c>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE18" s="12">
+        <v>45794</v>
+      </c>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="G19" s="70">
+      <c r="G19" s="56">
         <v>45734</v>
       </c>
       <c r="H19" s="12"/>
@@ -1846,34 +2186,51 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="63">
+      <c r="M19" s="6">
         <v>3</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="48"/>
+      <c r="N19" s="6"/>
+      <c r="Q19" s="41"/>
       <c r="S19" s="12">
         <v>45765</v>
       </c>
       <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="X19" s="29">
+        <v>3</v>
+      </c>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
+      <c r="AA19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="AC19" s="13"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE19" s="12">
+        <v>45795</v>
+      </c>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="G20" s="70">
+      <c r="G20" s="56">
         <v>45735</v>
       </c>
       <c r="H20" s="12"/>
@@ -1887,28 +2244,47 @@
       <c r="L20" s="11">
         <v>1</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="6">
         <v>3</v>
       </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="48"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="41"/>
       <c r="S20" s="12">
         <v>45766</v>
       </c>
-      <c r="T20" s="13"/>
+      <c r="T20" s="29">
+        <v>1</v>
+      </c>
       <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="V20" s="29">
+        <v>1</v>
+      </c>
+      <c r="W20" s="29">
+        <v>1</v>
+      </c>
+      <c r="X20" s="29">
+        <v>1</v>
+      </c>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE20" s="12">
+        <v>45796</v>
+      </c>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1918,7 +2294,7 @@
       <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="56">
         <v>45736</v>
       </c>
       <c r="H21" s="12"/>
@@ -1932,15 +2308,13 @@
       <c r="L21" s="11">
         <v>1</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="6">
         <v>5</v>
       </c>
-      <c r="N21" s="63">
-        <v>1</v>
-      </c>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="48"/>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="41"/>
       <c r="S21" s="12">
         <v>45767</v>
       </c>
@@ -1954,8 +2328,21 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE21" s="12">
+        <v>45797</v>
+      </c>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1965,7 +2352,7 @@
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="56">
         <v>45737</v>
       </c>
       <c r="H22" s="12"/>
@@ -1977,38 +2364,62 @@
         <v>1</v>
       </c>
       <c r="L22" s="13"/>
-      <c r="M22" s="63">
-        <v>1</v>
-      </c>
-      <c r="N22" s="63">
-        <v>1</v>
-      </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="48"/>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="41"/>
       <c r="S22" s="12">
         <v>45768</v>
       </c>
       <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
+      <c r="U22" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="W22" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA22" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB22" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC22" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>45798</v>
+      </c>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="G23" s="70">
+      <c r="G23" s="56">
         <v>45738</v>
       </c>
       <c r="H23" s="12"/>
@@ -2020,30 +2431,49 @@
         <v>1</v>
       </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="63">
-        <v>1</v>
-      </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="64">
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="Q23" s="50">
         <v>1</v>
       </c>
       <c r="S23" s="12">
         <v>45769</v>
       </c>
-      <c r="T23" s="13"/>
+      <c r="T23" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="V23" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="W23" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="Y23" s="29">
+        <v>1</v>
+      </c>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE23" s="12">
+        <v>45799</v>
+      </c>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>64</v>
       </c>
@@ -2053,7 +2483,7 @@
       <c r="C24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="56">
         <v>45739</v>
       </c>
       <c r="H24" s="12"/>
@@ -2061,32 +2491,49 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="41"/>
       <c r="S24" s="12">
         <v>45770</v>
       </c>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="U24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="Y24" s="29">
+        <v>1</v>
+      </c>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE24" s="12">
+        <v>45800</v>
+      </c>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="G25" s="70">
+      <c r="G25" s="56">
         <v>45740</v>
       </c>
       <c r="H25" s="12"/>
@@ -2102,34 +2549,51 @@
       <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="6">
         <v>2</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="48"/>
+      <c r="N25" s="6"/>
+      <c r="Q25" s="41"/>
       <c r="S25" s="12">
         <v>45771</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
+      <c r="T25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>117</v>
+      </c>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="X25" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE25" s="12">
+        <v>45801</v>
+      </c>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="G26" s="70">
+      <c r="G26" s="56">
         <v>45741</v>
       </c>
       <c r="H26" s="12"/>
@@ -2139,34 +2603,49 @@
       <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="6">
         <v>2</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="48"/>
+      <c r="N26" s="6"/>
+      <c r="Q26" s="41"/>
       <c r="S26" s="12">
         <v>45772</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="W26" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="X26" s="29" t="s">
+        <v>119</v>
+      </c>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE26" s="12">
+        <v>45802</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="G27" s="70">
+      <c r="G27" s="56">
         <v>45742</v>
       </c>
       <c r="H27" s="12"/>
@@ -2178,32 +2657,53 @@
       <c r="L27" s="11">
         <v>2</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="48"/>
+      <c r="Q27" s="41"/>
       <c r="S27" s="12">
         <v>45773</v>
       </c>
       <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="U27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="W27" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="X27" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
+      <c r="Z27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE27" s="12">
+        <v>45803</v>
+      </c>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="G28" s="70">
+      <c r="G28" s="56">
         <v>45743</v>
       </c>
       <c r="H28" s="12"/>
@@ -2215,13 +2715,11 @@
         <v>1</v>
       </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="63">
-        <v>1</v>
-      </c>
-      <c r="N28" s="63"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="48"/>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="Q28" s="41"/>
       <c r="S28" s="12">
         <v>45774</v>
       </c>
@@ -2235,8 +2733,21 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE28" s="12">
+        <v>45804</v>
+      </c>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>74</v>
       </c>
@@ -2246,7 +2757,7 @@
       <c r="C29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="56">
         <v>45744</v>
       </c>
       <c r="H29" s="12"/>
@@ -2256,11 +2767,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="13"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="48"/>
+      <c r="Q29" s="41"/>
       <c r="S29" s="12">
         <v>45775</v>
       </c>
@@ -2274,14 +2781,27 @@
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE29" s="12">
+        <v>45805</v>
+      </c>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="G30" s="70">
+      <c r="G30" s="56">
         <v>45745</v>
       </c>
       <c r="H30" s="12"/>
@@ -2293,11 +2813,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="13"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="48"/>
+      <c r="Q30" s="41"/>
       <c r="S30" s="12">
         <v>45776</v>
       </c>
@@ -2311,14 +2827,27 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE30" s="12">
+        <v>45806</v>
+      </c>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="31"/>
-      <c r="G31" s="70">
+      <c r="G31" s="56">
         <v>45746</v>
       </c>
       <c r="H31" s="12"/>
@@ -2326,11 +2855,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="48"/>
+      <c r="Q31" s="41"/>
       <c r="S31" s="12">
         <v>45777</v>
       </c>
@@ -2344,14 +2869,27 @@
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE31" s="12">
+        <v>45807</v>
+      </c>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="31"/>
-      <c r="G32" s="71">
+      <c r="G32" s="57">
         <v>45747</v>
       </c>
       <c r="H32" s="12"/>
@@ -2363,15 +2901,28 @@
       <c r="L32" s="19">
         <v>3</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="73">
-        <v>1</v>
-      </c>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M32" s="58"/>
+      <c r="N32" s="59">
+        <v>1</v>
+      </c>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="60"/>
+      <c r="AE32" s="12">
+        <v>45808</v>
+      </c>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="31" t="s">
         <v>78</v>
@@ -2394,202 +2945,283 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H36" s="38" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="61"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="H36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H37" s="42">
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="35"/>
+      <c r="R36" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="T36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="35"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="H37" s="36">
         <v>45729</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="37">
         <v>45755</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="2">
         <v>7</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="38">
         <v>0.23330000000000001</v>
       </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="48"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H39" s="51" t="s">
+      <c r="L37" s="39"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="R37" s="36">
+        <v>45727</v>
+      </c>
+      <c r="S37" s="37">
+        <v>45748</v>
+      </c>
+      <c r="T37" s="2">
+        <v>6</v>
+      </c>
+      <c r="U37" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="V37" s="39"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="41"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H38" s="42"/>
+      <c r="O38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="Y38" s="41"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H39" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="O39" s="41"/>
+      <c r="R39" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y39" s="41"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H40" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="20">
+        <v>45729</v>
+      </c>
+      <c r="O40" s="41"/>
+      <c r="R40" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" s="20">
+        <v>45729</v>
+      </c>
+      <c r="Y40" s="41"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H41" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="20">
+        <v>45730</v>
+      </c>
+      <c r="O41" s="41"/>
+      <c r="R41" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="S41" s="20">
+        <v>45730</v>
+      </c>
+      <c r="Y41" s="41"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H42" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="20">
+        <v>45736</v>
+      </c>
+      <c r="O42" s="41"/>
+      <c r="R42" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="20">
+        <v>45736</v>
+      </c>
+      <c r="Y42" s="41"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H43" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="20">
+        <v>45737</v>
+      </c>
+      <c r="O43" s="41"/>
+      <c r="R43" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" s="20">
+        <v>45737</v>
+      </c>
+      <c r="Y43" s="41"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H44" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="20">
+        <v>45747</v>
+      </c>
+      <c r="O44" s="41"/>
+      <c r="R44" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="S44" s="20">
+        <v>45747</v>
+      </c>
+      <c r="Y44" s="41"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H45" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="20">
+        <v>45748</v>
+      </c>
+      <c r="O45" s="41"/>
+      <c r="R45" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="S45" s="20">
+        <v>45748</v>
+      </c>
+      <c r="Y45" s="41"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H46" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="20">
+        <v>45753</v>
+      </c>
+      <c r="O46" s="41"/>
+      <c r="W46" s="41"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H47" s="42"/>
+      <c r="O47" s="41"/>
+      <c r="R47" s="42"/>
+      <c r="Y47" s="41"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H48" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="48"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H40" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="54">
-        <v>45729</v>
-      </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="48"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H41" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="54">
-        <v>45730</v>
-      </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="48"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H42" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="54">
-        <v>45736</v>
-      </c>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="48"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H43" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="54">
-        <v>45737</v>
-      </c>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="48"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H44" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="54">
-        <v>45747</v>
-      </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="48"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H45" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="54">
-        <v>45748</v>
-      </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="48"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H46" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="54">
-        <v>45753</v>
-      </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="48"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="48"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H48" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="57"/>
-    </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H49" s="58"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="60"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="66"/>
+      <c r="R48" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="66"/>
+    </row>
+    <row r="49" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H49" s="45"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="47"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="H48:O48"/>
+    <mergeCell ref="R48:Y48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2597,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C0838-86DA-4D8D-B5C7-CECDB914A541}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2615,19 +3247,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -2644,7 +3276,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2655,7 +3287,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +3296,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2675,7 +3307,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +3344,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="68" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2721,9 +3353,12 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
+      <c r="D10" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2732,16 +3367,19 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
+      <c r="D12" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2750,7 +3388,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2764,7 +3402,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -2776,16 +3414,19 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
@@ -2794,7 +3435,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
@@ -2856,6 +3497,9 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
+      <c r="D23" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -2971,6 +3615,44 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2988,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB8AA56-0276-453C-8DEE-38B4E56B3B04}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3738,7 @@
         <v>45730</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3067,7 +3749,7 @@
         <v>45736</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3077,6 +3759,9 @@
       <c r="B8" s="20">
         <v>45737</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -3085,6 +3770,9 @@
       <c r="B9" s="20">
         <v>45747</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -3108,6 +3796,14 @@
       </c>
       <c r="B12" s="20">
         <v>45761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="20">
+        <v>45773</v>
       </c>
     </row>
   </sheetData>

--- a/Student info.xlsx
+++ b/Student info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\Desktop\codingal course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D75F5D-5F4C-4B2E-8DB4-C20B3DDDE6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CD296-86E7-4926-8561-DD850CC365B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="159">
   <si>
     <t>Batches</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Batch10</t>
   </si>
   <si>
-    <t>Johari</t>
-  </si>
-  <si>
     <t>Atiksh Sharma</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Batch11</t>
   </si>
   <si>
-    <t>Mishika</t>
-  </si>
-  <si>
     <t>Anushwet Malvi</t>
   </si>
   <si>
@@ -408,13 +402,124 @@
   </si>
   <si>
     <t>Vikranta</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>B7-1,B6-1</t>
+  </si>
+  <si>
+    <t>B9,B12-2</t>
+  </si>
+  <si>
+    <t>B11 -1</t>
+  </si>
+  <si>
+    <t>B7-1</t>
+  </si>
+  <si>
+    <t>B12,B3-2</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>10+1(next month)</t>
+  </si>
+  <si>
+    <t>Punctuality</t>
+  </si>
+  <si>
+    <t>Late class join</t>
+  </si>
+  <si>
+    <t>Pay per class</t>
+  </si>
+  <si>
+    <t>My pay</t>
+  </si>
+  <si>
+    <t>Total pay</t>
+  </si>
+  <si>
+    <t>TOTAL classes</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2-shakthi</t>
+  </si>
+  <si>
+    <t>B2,B8,B4-3</t>
+  </si>
+  <si>
+    <t>Trial class Completed</t>
+  </si>
+  <si>
+    <t>B4-1</t>
+  </si>
+  <si>
+    <t>B5,B10-2</t>
+  </si>
+  <si>
+    <t>P Sree Vaaraahi</t>
+  </si>
+  <si>
+    <t>Red List</t>
+  </si>
+  <si>
+    <t>2-Aminath, Ruhani</t>
+  </si>
+  <si>
+    <t>Darshit</t>
+  </si>
+  <si>
+    <t>Substitutes</t>
+  </si>
+  <si>
+    <t>Labeeb</t>
+  </si>
+  <si>
+    <t>Ashmita</t>
+  </si>
+  <si>
+    <t>1- Mehmil</t>
+  </si>
+  <si>
+    <t>B9, B8-2</t>
+  </si>
+  <si>
+    <t>1-Ken</t>
+  </si>
+  <si>
+    <t>1-Anushwet</t>
+  </si>
+  <si>
+    <t>1-Adrija</t>
+  </si>
+  <si>
+    <t>B3-1</t>
+  </si>
+  <si>
+    <t>1-Abdul, 2-Tebogo</t>
+  </si>
+  <si>
+    <t>B11,B6-2</t>
+  </si>
+  <si>
+    <t>2- Hrishikesh, Divyansh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +541,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +698,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -675,10 +833,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -753,6 +912,19 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -781,7 +953,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1060,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,15 +1244,15 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="46.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1089,215 +1262,231 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>16</v>
       </c>
+      <c r="G1" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="H1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="T1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="U1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="V1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="W1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="X1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="AA1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="AB1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="49">
+      <c r="F2" s="49">
         <v>45717</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="11">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="11">
         <v>2</v>
       </c>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="50"/>
-      <c r="S2" s="12">
+      <c r="P2" s="50"/>
+      <c r="R2" s="12">
         <v>45748</v>
       </c>
+      <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="V2" s="28">
+        <v>1</v>
+      </c>
       <c r="W2" s="28">
         <v>1</v>
       </c>
-      <c r="X2" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="29">
-        <v>1</v>
-      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AE2" s="12">
+      <c r="AD2" s="12">
         <v>45778</v>
       </c>
-      <c r="AF2" s="13"/>
+      <c r="AE2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
+      <c r="AI2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" s="29">
+        <v>2</v>
+      </c>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="73"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="G3" s="49">
+      <c r="C3" s="73"/>
+      <c r="F3" s="49">
         <v>45718</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="Q3" s="41"/>
-      <c r="S3" s="12">
+      <c r="P3" s="41"/>
+      <c r="R3" s="12">
         <v>45749</v>
       </c>
+      <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="V3" s="28">
+        <v>2</v>
+      </c>
       <c r="W3" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3" s="28">
         <v>1</v>
       </c>
-      <c r="Y3" s="28">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AE3" s="12">
+      <c r="AD3" s="12">
         <v>45779</v>
       </c>
+      <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
+      <c r="AH3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ3" s="29">
+        <v>1</v>
+      </c>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
+      <c r="AM3" s="29" t="s">
+        <v>138</v>
+      </c>
       <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
@@ -1307,95 +1496,104 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="49">
+      <c r="F4" s="49">
         <v>45719</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="18"/>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="50"/>
-      <c r="S4" s="12">
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="50"/>
+      <c r="R4" s="12">
         <v>45750</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="28">
-        <v>1</v>
-      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="28">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="28">
+      <c r="W4" s="28">
         <v>2</v>
       </c>
+      <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AE4" s="12">
+      <c r="AD4" s="12">
         <v>45780</v>
       </c>
+      <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
+      <c r="AG4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH4" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI4" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ4" s="29">
+        <v>1</v>
+      </c>
       <c r="AK4" s="13"/>
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="G5" s="49">
+      <c r="F5" s="49">
         <v>45720</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="50"/>
-      <c r="S5" s="21">
+      <c r="P5" s="50"/>
+      <c r="R5" s="21">
         <v>45751</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="28">
-        <v>1</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="28">
-        <v>1</v>
-      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="28">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="28">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AE5" s="12">
+      <c r="AD5" s="12">
         <v>45781</v>
       </c>
+      <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
@@ -1405,38 +1603,36 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="49">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="F6" s="49">
         <v>45721</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="50"/>
-      <c r="S6" s="21">
+      <c r="P6" s="50"/>
+      <c r="R6" s="21">
         <v>45752</v>
       </c>
+      <c r="S6" s="13"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="U6" s="28">
+        <v>1</v>
+      </c>
       <c r="V6" s="28">
         <v>1</v>
       </c>
@@ -1444,63 +1640,71 @@
         <v>1</v>
       </c>
       <c r="X6" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="28">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AE6" s="12">
+      <c r="AD6" s="12">
         <v>45782</v>
       </c>
+      <c r="AE6" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="AG6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH6" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
+      <c r="AJ6" s="29">
+        <v>2</v>
+      </c>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
+      <c r="AL6" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="49">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="49">
         <v>45722</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="14">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="51">
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="51">
         <v>2</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51">
-        <v>1</v>
-      </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
-      <c r="S7" s="21">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51">
+        <v>1</v>
+      </c>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+      <c r="R7" s="21">
         <v>45753</v>
       </c>
+      <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
@@ -1510,190 +1714,222 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AE7" s="12">
+      <c r="AD7" s="12">
         <v>45783</v>
       </c>
+      <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
+      <c r="AG7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI7" s="29" t="s">
+        <v>151</v>
+      </c>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="29" t="s">
+        <v>150</v>
+      </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="49">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="49">
         <v>45723</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
       <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="50"/>
-      <c r="S8" s="21">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="50"/>
+      <c r="R8" s="21">
         <v>45754</v>
       </c>
-      <c r="T8" s="28">
-        <v>1</v>
-      </c>
-      <c r="U8" s="13"/>
+      <c r="S8" s="28">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="28">
+        <v>1</v>
+      </c>
       <c r="V8" s="28">
         <v>1</v>
       </c>
       <c r="W8" s="28">
-        <v>1</v>
-      </c>
-      <c r="X8" s="28">
         <v>2</v>
       </c>
+      <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AE8" s="12">
+      <c r="AD8" s="12">
         <v>45784</v>
       </c>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI8" s="29" t="s">
+        <v>155</v>
+      </c>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
+      <c r="AL8" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM8" s="29" t="s">
+        <v>152</v>
+      </c>
       <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="G9" s="49">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="49">
         <v>45724</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
+      <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
       <c r="M9" s="6">
         <v>1</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="50"/>
-      <c r="S9" s="21">
+      <c r="P9" s="50"/>
+      <c r="R9" s="21">
         <v>45755</v>
       </c>
+      <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
+      <c r="V9" s="28">
+        <v>1</v>
+      </c>
       <c r="W9" s="28">
         <v>1</v>
       </c>
       <c r="X9" s="28">
         <v>1</v>
       </c>
-      <c r="Y9" s="28">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="12">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="12">
         <v>45785</v>
       </c>
-      <c r="AF9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
+      <c r="AI9" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
+      <c r="AL9" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM9" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="G10" s="49">
+      <c r="F10" s="49">
         <v>45725</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="Q10" s="41"/>
-      <c r="S10" s="21">
+      <c r="P10" s="41"/>
+      <c r="R10" s="21">
         <v>45756</v>
       </c>
+      <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="28">
+        <v>1</v>
+      </c>
       <c r="V10" s="28">
         <v>1</v>
       </c>
       <c r="W10" s="28">
-        <v>1</v>
-      </c>
-      <c r="X10" s="28">
         <v>2</v>
       </c>
+      <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="28">
+      <c r="Z10" s="28">
         <v>2</v>
       </c>
+      <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AE10" s="12">
+      <c r="AD10" s="12">
         <v>45786</v>
       </c>
+      <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
@@ -1701,61 +1937,63 @@
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
+      <c r="AM10" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="G11" s="49">
+      <c r="F11" s="49">
         <v>45726</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6">
+      <c r="G11" s="17"/>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="53"/>
-      <c r="S11" s="21">
+      <c r="P11" s="53"/>
+      <c r="R11" s="21">
         <v>45757</v>
       </c>
-      <c r="T11" s="28">
-        <v>1</v>
-      </c>
+      <c r="S11" s="28">
+        <v>1</v>
+      </c>
+      <c r="T11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="V11" s="28">
+        <v>1</v>
+      </c>
       <c r="W11" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" s="13"/>
-      <c r="AE11" s="12">
+      <c r="AA11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AD11" s="12">
         <v>45787</v>
       </c>
+      <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
@@ -1765,10 +2003,9 @@
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1777,43 +2014,44 @@
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="36">
+      <c r="F12" s="36">
         <v>45727</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="2">
+      <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="Q12" s="41"/>
-      <c r="S12" s="12">
+      <c r="M12" s="2"/>
+      <c r="P12" s="41"/>
+      <c r="R12" s="12">
         <v>45758</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="28">
-        <v>1</v>
-      </c>
-      <c r="V12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="28">
+        <v>1</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="28">
+        <v>1</v>
+      </c>
       <c r="W12" s="28">
         <v>1</v>
       </c>
-      <c r="X12" s="28">
-        <v>1</v>
-      </c>
+      <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="28">
+      <c r="Z12" s="28">
         <v>2</v>
       </c>
+      <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AE12" s="12">
+      <c r="AD12" s="12">
         <v>45788</v>
       </c>
+      <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
@@ -1823,53 +2061,54 @@
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="AS12" s="40"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="74"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="G13" s="54">
+      <c r="F13" s="54">
         <v>45728</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24">
-        <v>1</v>
-      </c>
-      <c r="M13" s="55">
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="55">
         <v>2</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="Q13" s="41"/>
-      <c r="S13" s="12">
+      <c r="M13" s="55"/>
+      <c r="P13" s="41"/>
+      <c r="R13" s="12">
         <v>45759</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="28">
+      <c r="S13" s="13"/>
+      <c r="T13" s="28">
         <v>2</v>
       </c>
-      <c r="V13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="28">
+        <v>1</v>
+      </c>
       <c r="W13" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AE13" s="12">
+      <c r="AD13" s="12">
         <v>45789</v>
       </c>
+      <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
@@ -1879,41 +2118,41 @@
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
       <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="74"/>
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="G14" s="49">
+      <c r="F14" s="49">
         <v>45729</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
       <c r="J14" s="11">
         <v>1</v>
       </c>
       <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="11">
-        <v>1</v>
+      <c r="L14" s="6">
+        <v>2</v>
       </c>
       <c r="M14" s="6">
-        <v>2</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="41"/>
-      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="R14" s="12">
         <v>45760</v>
       </c>
+      <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
@@ -1923,10 +2162,10 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AE14" s="12">
+      <c r="AD14" s="12">
         <v>45790</v>
       </c>
+      <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
@@ -1936,61 +2175,61 @@
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A15" s="74"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="G15" s="56">
+      <c r="F15" s="56">
         <v>45730</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="41"/>
-      <c r="S15" s="12">
+      <c r="G15" s="12"/>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="R15" s="12">
         <v>45761</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="29">
+      <c r="S15" s="13"/>
+      <c r="T15" s="29">
         <v>2</v>
       </c>
-      <c r="V15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="29">
+        <v>1</v>
+      </c>
       <c r="W15" s="29">
-        <v>1</v>
-      </c>
-      <c r="X15" s="29">
         <v>2</v>
       </c>
-      <c r="Y15" s="28">
+      <c r="X15" s="28">
         <v>2</v>
       </c>
+      <c r="Y15" s="29">
+        <v>1</v>
+      </c>
       <c r="Z15" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="29">
         <v>2</v>
       </c>
+      <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AE15" s="12">
+      <c r="AD15" s="12">
         <v>45791</v>
       </c>
+      <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
@@ -2000,51 +2239,51 @@
       <c r="AL15" s="13"/>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A16" s="74"/>
       <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="G16" s="56">
+      <c r="F16" s="56">
         <v>45731</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="6">
+      <c r="G16" s="12"/>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="Q16" s="41"/>
-      <c r="S16" s="12">
+      <c r="M16" s="6"/>
+      <c r="P16" s="41"/>
+      <c r="R16" s="12">
         <v>45762</v>
       </c>
+      <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="V16" s="29">
+        <v>1</v>
+      </c>
       <c r="W16" s="29">
         <v>1</v>
       </c>
-      <c r="X16" s="29">
-        <v>1</v>
-      </c>
+      <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AE16" s="12">
+      <c r="AD16" s="12">
         <v>45792</v>
       </c>
+      <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
@@ -2054,9 +2293,8 @@
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2066,39 +2304,40 @@
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="56">
+      <c r="F17" s="56">
         <v>45732</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="Q17" s="41"/>
-      <c r="S17" s="12">
+      <c r="P17" s="41"/>
+      <c r="R17" s="12">
         <v>45763</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="29">
+      <c r="S17" s="13"/>
+      <c r="T17" s="29">
         <v>2</v>
       </c>
-      <c r="V17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="29">
+        <v>1</v>
+      </c>
       <c r="W17" s="29">
-        <v>1</v>
-      </c>
-      <c r="X17" s="29">
         <v>2</v>
       </c>
+      <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC17" s="13"/>
-      <c r="AE17" s="12">
+      <c r="AA17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AD17" s="12">
         <v>45793</v>
       </c>
+      <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
@@ -2108,18 +2347,20 @@
       <c r="AL17" s="13"/>
       <c r="AM17" s="13"/>
       <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="G18" s="56">
+      <c r="F18" s="56">
         <v>45733</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -2129,38 +2370,36 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="L18" s="6">
         <v>2</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="Q18" s="41"/>
-      <c r="S18" s="12">
+      <c r="M18" s="6"/>
+      <c r="P18" s="41"/>
+      <c r="R18" s="12">
         <v>45764</v>
       </c>
+      <c r="S18" s="29">
+        <v>1</v>
+      </c>
       <c r="T18" s="29">
         <v>1</v>
       </c>
-      <c r="U18" s="29">
-        <v>1</v>
-      </c>
+      <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="29">
+      <c r="W18" s="29">
         <v>2</v>
       </c>
+      <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="29">
-        <v>1</v>
-      </c>
+      <c r="Z18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AE18" s="12">
+      <c r="AD18" s="12">
         <v>45794</v>
       </c>
+      <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
@@ -2170,49 +2409,49 @@
       <c r="AL18" s="13"/>
       <c r="AM18" s="13"/>
       <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="G19" s="56">
+      <c r="F19" s="56">
         <v>45734</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="6">
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="Q19" s="41"/>
-      <c r="S19" s="12">
+      <c r="M19" s="6"/>
+      <c r="P19" s="41"/>
+      <c r="R19" s="12">
         <v>45765</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="18"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="29">
+      <c r="W19" s="29">
         <v>3</v>
       </c>
+      <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC19" s="13"/>
-      <c r="AE19" s="12">
+      <c r="Z19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB19" s="13"/>
+      <c r="AD19" s="12">
         <v>45795</v>
       </c>
+      <c r="AE19" s="13"/>
       <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
@@ -2222,57 +2461,57 @@
       <c r="AL19" s="13"/>
       <c r="AM19" s="13"/>
       <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="G20" s="56">
+      <c r="F20" s="56">
         <v>45735</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="11">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="41"/>
-      <c r="S20" s="12">
+      <c r="M20" s="6"/>
+      <c r="P20" s="41"/>
+      <c r="R20" s="12">
         <v>45766</v>
       </c>
-      <c r="T20" s="29">
-        <v>1</v>
-      </c>
-      <c r="U20" s="13"/>
+      <c r="S20" s="29">
+        <v>1</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="29">
+        <v>1</v>
+      </c>
       <c r="V20" s="29">
         <v>1</v>
       </c>
       <c r="W20" s="29">
         <v>1</v>
       </c>
-      <c r="X20" s="29">
-        <v>1</v>
-      </c>
+      <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AE20" s="12">
+      <c r="AD20" s="12">
         <v>45796</v>
       </c>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
@@ -2282,9 +2521,8 @@
       <c r="AL20" s="13"/>
       <c r="AM20" s="13"/>
       <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -2294,30 +2532,31 @@
       <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="56">
+      <c r="F21" s="56">
         <v>45736</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" s="11">
         <v>1</v>
       </c>
-      <c r="L21" s="11">
-        <v>1</v>
+      <c r="L21" s="6">
+        <v>5</v>
       </c>
       <c r="M21" s="6">
-        <v>5</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="S21" s="12">
+        <v>1</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="R21" s="12">
         <v>45767</v>
       </c>
+      <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
@@ -2327,10 +2566,10 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AE21" s="12">
+      <c r="AD21" s="12">
         <v>45797</v>
       </c>
+      <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
@@ -2340,9 +2579,8 @@
       <c r="AL21" s="13"/>
       <c r="AM21" s="13"/>
       <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2352,56 +2590,57 @@
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="56">
+      <c r="F22" s="56">
         <v>45737</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
       <c r="M22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="41"/>
-      <c r="S22" s="12">
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="R22" s="12">
         <v>45768</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="W22" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="X22" s="29" t="s">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="Z22" s="29" t="s">
+        <v>97</v>
+      </c>
       <c r="AA22" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB22" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC22" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE22" s="12">
+        <v>98</v>
+      </c>
+      <c r="AD22" s="12">
         <v>45798</v>
       </c>
+      <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
@@ -2411,57 +2650,57 @@
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
       <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="G23" s="56">
+      <c r="F23" s="56">
         <v>45738</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="Q23" s="50">
-        <v>1</v>
-      </c>
-      <c r="S23" s="12">
+      <c r="G23" s="12"/>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="P23" s="50">
+        <v>1</v>
+      </c>
+      <c r="R23" s="12">
         <v>45769</v>
       </c>
-      <c r="T23" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="U23" s="13"/>
+      <c r="S23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="V23" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="W23" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="29">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="W23" s="13"/>
+      <c r="X23" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AE23" s="12">
+      <c r="AD23" s="12">
         <v>45799</v>
       </c>
+      <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
@@ -2471,51 +2710,51 @@
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="56">
+      <c r="F24" s="56">
         <v>45739</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="Q24" s="41"/>
-      <c r="S24" s="12">
+      <c r="P24" s="41"/>
+      <c r="R24" s="12">
         <v>45770</v>
       </c>
-      <c r="T24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="U24" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V24" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="W24" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="29">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="W24" s="13"/>
+      <c r="X24" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AE24" s="12">
+      <c r="AD24" s="12">
         <v>45800</v>
       </c>
+      <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
@@ -2525,18 +2764,20 @@
       <c r="AL24" s="13"/>
       <c r="AM24" s="13"/>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="G25" s="56">
+      <c r="F25" s="56">
         <v>45740</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
       <c r="I25" s="11">
         <v>1</v>
       </c>
@@ -2546,36 +2787,34 @@
       <c r="K25" s="11">
         <v>1</v>
       </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="Q25" s="41"/>
-      <c r="S25" s="12">
+      <c r="M25" s="6"/>
+      <c r="P25" s="41"/>
+      <c r="R25" s="12">
         <v>45771</v>
       </c>
+      <c r="S25" s="29" t="s">
+        <v>111</v>
+      </c>
       <c r="T25" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="U25" s="29" t="s">
-        <v>117</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="W25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AE25" s="12">
+      <c r="AD25" s="12">
         <v>45801</v>
       </c>
+      <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
@@ -2585,49 +2824,49 @@
       <c r="AL25" s="13"/>
       <c r="AM25" s="13"/>
       <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="G26" s="56">
+      <c r="F26" s="56">
         <v>45741</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
         <v>2</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="Q26" s="41"/>
-      <c r="S26" s="12">
+      <c r="M26" s="6"/>
+      <c r="P26" s="41"/>
+      <c r="R26" s="12">
         <v>45772</v>
       </c>
+      <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
+      <c r="V26" s="29" t="s">
+        <v>116</v>
+      </c>
       <c r="W26" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="X26" s="29" t="s">
-        <v>119</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AE26" s="12">
+      <c r="AD26" s="12">
         <v>45802</v>
       </c>
+      <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
@@ -2637,55 +2876,55 @@
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="G27" s="56">
+      <c r="F27" s="56">
         <v>45742</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="11">
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11">
         <v>2</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="S27" s="12">
+      <c r="P27" s="41"/>
+      <c r="R27" s="12">
         <v>45773</v>
       </c>
-      <c r="T27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="U27" s="29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="W27" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="W27" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="X27" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AE27" s="12">
+      <c r="AD27" s="12">
         <v>45803</v>
       </c>
+      <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
@@ -2695,34 +2934,38 @@
       <c r="AL27" s="13"/>
       <c r="AM27" s="13"/>
       <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="G28" s="56">
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="56">
         <v>45743</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11">
-        <v>1</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="6">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="Q28" s="41"/>
-      <c r="S28" s="12">
+      <c r="G28" s="12"/>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="P28" s="41"/>
+      <c r="R28" s="12">
         <v>45774</v>
       </c>
+      <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
@@ -2732,10 +2975,10 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AE28" s="12">
+      <c r="AD28" s="12">
         <v>45804</v>
       </c>
+      <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
@@ -2745,45 +2988,45 @@
       <c r="AL28" s="13"/>
       <c r="AM28" s="13"/>
       <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
       <c r="B29" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="56">
+      <c r="C29" s="31"/>
+      <c r="F29" s="56">
         <v>45744</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11">
+      <c r="J29" s="11">
         <v>2</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="Q29" s="41"/>
-      <c r="S29" s="12">
+      <c r="K29" s="13"/>
+      <c r="P29" s="41"/>
+      <c r="R29" s="12">
         <v>45775</v>
       </c>
-      <c r="T29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="W29" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AE29" s="12">
+      <c r="AD29" s="12">
         <v>45805</v>
       </c>
+      <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
@@ -2793,43 +3036,49 @@
       <c r="AL29" s="13"/>
       <c r="AM29" s="13"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="G30" s="56">
+      <c r="F30" s="56">
         <v>45745</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11">
-        <v>1</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="11">
-        <v>1</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="Q30" s="41"/>
-      <c r="S30" s="12">
+      <c r="G30" s="12"/>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="P30" s="41"/>
+      <c r="R30" s="12">
         <v>45776</v>
       </c>
-      <c r="T30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="29" t="s">
+        <v>111</v>
+      </c>
       <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="V30" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="W30" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AE30" s="12">
+      <c r="AD30" s="12">
         <v>45806</v>
       </c>
+      <c r="AE30" s="13"/>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
@@ -2839,39 +3088,47 @@
       <c r="AL30" s="13"/>
       <c r="AM30" s="13"/>
       <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="31"/>
-      <c r="G31" s="56">
+      <c r="F31" s="56">
         <v>45746</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="Q31" s="41"/>
-      <c r="S31" s="12">
+      <c r="P31" s="41"/>
+      <c r="R31" s="12">
         <v>45777</v>
       </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="V31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="W31" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AE31" s="12">
+      <c r="AD31" s="12">
         <v>45807</v>
       </c>
+      <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
@@ -2881,36 +3138,73 @@
       <c r="AL31" s="13"/>
       <c r="AM31" s="13"/>
       <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="G32" s="57">
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A32" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="57">
         <v>45747</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="19">
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="19">
         <v>2</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="19">
+      <c r="J32" s="13"/>
+      <c r="K32" s="19">
         <v>3</v>
       </c>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59">
-        <v>1</v>
-      </c>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59">
+        <v>1</v>
+      </c>
+      <c r="N32" s="58"/>
       <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="60"/>
-      <c r="AE32" s="12">
+      <c r="P32" s="60"/>
+      <c r="R32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="S32" s="10">
+        <v>6</v>
+      </c>
+      <c r="T32" s="10">
+        <v>19</v>
+      </c>
+      <c r="U32" s="10">
+        <v>9</v>
+      </c>
+      <c r="V32" s="10">
+        <v>23</v>
+      </c>
+      <c r="W32" s="10">
+        <v>37</v>
+      </c>
+      <c r="X32" s="10">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="12">
         <v>45808</v>
       </c>
+      <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
@@ -2920,308 +3214,402 @@
       <c r="AL32" s="13"/>
       <c r="AM32" s="13"/>
       <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="I33">
-        <f>SUM(I1:I32)</f>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="H33">
+        <f>SUM(H1:H32)</f>
         <v>10</v>
+      </c>
+      <c r="J33">
+        <f>SUM(J1:J32)</f>
+        <v>17</v>
       </c>
       <c r="K33">
         <f>SUM(K1:K32)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33">
-        <f>SUM(L1:L32)</f>
-        <v>16</v>
-      </c>
-      <c r="M33">
-        <f>SUM(M1:M28)</f>
+        <f>SUM(L1:L28)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="61"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="H36" s="32" t="s">
+      <c r="R33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="63">
+        <v>350</v>
+      </c>
+      <c r="T33" s="63">
+        <v>325</v>
+      </c>
+      <c r="U33" s="63">
+        <v>300</v>
+      </c>
+      <c r="V33" s="63">
+        <v>275</v>
+      </c>
+      <c r="W33" s="63">
+        <v>200</v>
+      </c>
+      <c r="X33" s="63">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="63">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="63">
+        <v>50</v>
+      </c>
+      <c r="AA33" s="63">
+        <v>160</v>
+      </c>
+      <c r="AB33" s="63">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R34" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S34" s="63">
+        <f t="shared" ref="S34:AB34" si="0">PRODUCT(S32,S33)</f>
+        <v>2100</v>
+      </c>
+      <c r="T34" s="63">
+        <f t="shared" si="0"/>
+        <v>6175</v>
+      </c>
+      <c r="U34" s="63">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="V34" s="63">
+        <f t="shared" si="0"/>
+        <v>6325</v>
+      </c>
+      <c r="W34" s="63">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+      <c r="X34" s="63">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="Y34" s="63">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="Z34" s="63">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AA34" s="63">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="AB34" s="63">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="AD34" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="64">
+        <f>SUM(S34:AB34)</f>
+        <v>27830</v>
+      </c>
+      <c r="AD35" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="S36" s="62">
+        <v>0.99</v>
+      </c>
+      <c r="AD36" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="S37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD38" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G45" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="35"/>
+      <c r="Q45" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T45" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="35"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G46" s="36">
+        <v>45729</v>
+      </c>
+      <c r="H46" s="37">
+        <v>45755</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="38">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="41"/>
+      <c r="Q46" s="36">
+        <v>45727</v>
+      </c>
+      <c r="R46" s="37">
+        <v>45748</v>
+      </c>
+      <c r="S46" s="2">
+        <v>6</v>
+      </c>
+      <c r="T46" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="U46" s="39"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="41"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G47" s="42"/>
+      <c r="N47" s="41"/>
+      <c r="Q47" s="42"/>
+      <c r="X47" s="41"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G48" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="J36" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="33" t="s">
+      <c r="H48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="35"/>
-      <c r="R36" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="S36" s="33" t="s">
+      <c r="N48" s="41"/>
+      <c r="Q48" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="T36" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="U36" s="33" t="s">
+      <c r="R48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="35"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="H37" s="36">
+      <c r="X48" s="41"/>
+    </row>
+    <row r="49" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G49" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="20">
         <v>45729</v>
       </c>
-      <c r="I37" s="37">
-        <v>45755</v>
-      </c>
-      <c r="J37" s="2">
-        <v>7</v>
-      </c>
-      <c r="K37" s="38">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="41"/>
-      <c r="R37" s="36">
-        <v>45727</v>
-      </c>
-      <c r="S37" s="37">
+      <c r="N49" s="41"/>
+      <c r="Q49" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="R49" s="20">
+        <v>45729</v>
+      </c>
+      <c r="X49" s="41"/>
+    </row>
+    <row r="50" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G50" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="20">
+        <v>45730</v>
+      </c>
+      <c r="N50" s="41"/>
+      <c r="Q50" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R50" s="20">
+        <v>45730</v>
+      </c>
+      <c r="X50" s="41"/>
+    </row>
+    <row r="51" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G51" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="20">
+        <v>45736</v>
+      </c>
+      <c r="N51" s="41"/>
+      <c r="Q51" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="20">
+        <v>45736</v>
+      </c>
+      <c r="X51" s="41"/>
+    </row>
+    <row r="52" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G52" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="20">
+        <v>45737</v>
+      </c>
+      <c r="N52" s="41"/>
+      <c r="Q52" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="R52" s="20">
+        <v>45737</v>
+      </c>
+      <c r="X52" s="41"/>
+    </row>
+    <row r="53" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G53" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="20">
+        <v>45747</v>
+      </c>
+      <c r="N53" s="41"/>
+      <c r="Q53" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="R53" s="20">
+        <v>45747</v>
+      </c>
+      <c r="X53" s="41"/>
+    </row>
+    <row r="54" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G54" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="20">
         <v>45748</v>
       </c>
-      <c r="T37" s="2">
-        <v>6</v>
-      </c>
-      <c r="U37" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="41"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H38" s="42"/>
-      <c r="O38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="Y38" s="41"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H39" s="43" t="s">
+      <c r="N54" s="41"/>
+      <c r="Q54" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="R54" s="20">
+        <v>45748</v>
+      </c>
+      <c r="X54" s="41"/>
+    </row>
+    <row r="55" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G55" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="20">
+        <v>45753</v>
+      </c>
+      <c r="N55" s="41"/>
+      <c r="V55" s="41"/>
+    </row>
+    <row r="56" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G56" s="42"/>
+      <c r="N56" s="41"/>
+      <c r="Q56" s="42"/>
+      <c r="X56" s="41"/>
+    </row>
+    <row r="57" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G57" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="77"/>
+      <c r="Q57" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="O39" s="41"/>
-      <c r="R39" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y39" s="41"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H40" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="20">
-        <v>45729</v>
-      </c>
-      <c r="O40" s="41"/>
-      <c r="R40" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" s="20">
-        <v>45729</v>
-      </c>
-      <c r="Y40" s="41"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H41" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="20">
-        <v>45730</v>
-      </c>
-      <c r="O41" s="41"/>
-      <c r="R41" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="S41" s="20">
-        <v>45730</v>
-      </c>
-      <c r="Y41" s="41"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H42" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="20">
-        <v>45736</v>
-      </c>
-      <c r="O42" s="41"/>
-      <c r="R42" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="S42" s="20">
-        <v>45736</v>
-      </c>
-      <c r="Y42" s="41"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H43" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="20">
-        <v>45737</v>
-      </c>
-      <c r="O43" s="41"/>
-      <c r="R43" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="S43" s="20">
-        <v>45737</v>
-      </c>
-      <c r="Y43" s="41"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H44" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="20">
-        <v>45747</v>
-      </c>
-      <c r="O44" s="41"/>
-      <c r="R44" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="S44" s="20">
-        <v>45747</v>
-      </c>
-      <c r="Y44" s="41"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H45" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="20">
-        <v>45748</v>
-      </c>
-      <c r="O45" s="41"/>
-      <c r="R45" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="S45" s="20">
-        <v>45748</v>
-      </c>
-      <c r="Y45" s="41"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H46" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="20">
-        <v>45753</v>
-      </c>
-      <c r="O46" s="41"/>
-      <c r="W46" s="41"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H47" s="42"/>
-      <c r="O47" s="41"/>
-      <c r="R47" s="42"/>
-      <c r="Y47" s="41"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H48" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="66"/>
-      <c r="R48" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="66"/>
-    </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.3">
-      <c r="H49" s="45"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="47"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="47"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="77"/>
+    </row>
+    <row r="58" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="47"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="Q57:X57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3229,10 +3617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C0838-86DA-4D8D-B5C7-CECDB914A541}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3241,27 +3629,36 @@
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="69" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="O2" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3274,9 +3671,18 @@
       <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="E3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3285,18 +3691,32 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="D5" s="31"/>
+      <c r="O5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3305,36 +3725,37 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="31"/>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="78"/>
+      <c r="B7" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -3343,12 +3764,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -3357,54 +3778,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
+      <c r="D11" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="70" t="s">
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
+      <c r="D13" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -3413,10 +3838,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="74"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -3425,60 +3850,68 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="74"/>
       <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="8" t="s">
+      <c r="E18" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="74"/>
+      <c r="B19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -3487,12 +3920,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>45</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -3501,97 +3932,109 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
-        <v>66</v>
+      <c r="B29" s="71" t="s">
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="31" t="s">
         <v>77</v>
@@ -3599,69 +4042,69 @@
       <c r="D33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31" t="s">
-        <v>78</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="61"/>
-      <c r="B37" s="61" t="s">
-        <v>97</v>
+      <c r="B37" s="72" t="s">
+        <v>96</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="61"/>
-      <c r="B38" s="61" t="s">
-        <v>98</v>
+      <c r="B38" s="72" t="s">
+        <v>107</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E38" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="C2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3672,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB8AA56-0276-453C-8DEE-38B4E56B3B04}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3686,7 +4129,7 @@
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3694,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,10 +4145,10 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3716,7 +4159,7 @@
         <v>45724</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3727,7 +4170,7 @@
         <v>45729</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3738,7 +4181,7 @@
         <v>45730</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3749,7 +4192,7 @@
         <v>45736</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,7 +4203,7 @@
         <v>45737</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3771,7 +4214,7 @@
         <v>45747</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3781,6 +4224,9 @@
       <c r="B10" s="20">
         <v>45748</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3789,10 +4235,13 @@
       <c r="B11" s="20">
         <v>45753</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="20">
         <v>45761</v>
@@ -3800,7 +4249,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="20">
         <v>45773</v>

--- a/Student info.xlsx
+++ b/Student info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kansa\Desktop\codingal course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CD296-86E7-4926-8561-DD850CC365B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57820929-1AAC-4E0F-B907-FFB98CDB7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
   <si>
     <t>Batches</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Jaelynn Felix</t>
   </si>
   <si>
-    <t>Andrea Cruz.T</t>
-  </si>
-  <si>
     <t>Asrar Ayaat Islam</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Mikaeel Faizan</t>
   </si>
   <si>
-    <t>Abdul Sami Khan</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>Adwait Rajeev Menon K</t>
   </si>
   <si>
-    <t>Darshith</t>
-  </si>
-  <si>
     <t>Mikaeel-1</t>
   </si>
   <si>
@@ -470,24 +461,9 @@
     <t>P Sree Vaaraahi</t>
   </si>
   <si>
-    <t>Red List</t>
-  </si>
-  <si>
     <t>2-Aminath, Ruhani</t>
   </si>
   <si>
-    <t>Darshit</t>
-  </si>
-  <si>
-    <t>Substitutes</t>
-  </si>
-  <si>
-    <t>Labeeb</t>
-  </si>
-  <si>
-    <t>Ashmita</t>
-  </si>
-  <si>
     <t>1- Mehmil</t>
   </si>
   <si>
@@ -506,20 +482,38 @@
     <t>B3-1</t>
   </si>
   <si>
-    <t>1-Abdul, 2-Tebogo</t>
-  </si>
-  <si>
     <t>B11,B6-2</t>
   </si>
   <si>
     <t>2- Hrishikesh, Divyansh</t>
+  </si>
+  <si>
+    <t>B2-3</t>
+  </si>
+  <si>
+    <t>B5,B4,B8-3</t>
+  </si>
+  <si>
+    <t>1-Abdul</t>
+  </si>
+  <si>
+    <t>B3,B4-2</t>
+  </si>
+  <si>
+    <t>B2,B5,B10-3</t>
+  </si>
+  <si>
+    <t>Ian Mewan</t>
+  </si>
+  <si>
+    <t>2-Tebogo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,13 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,19 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -919,16 +894,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,14 +912,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>17</v>
@@ -1281,25 +1253,25 @@
         <v>20</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>17</v>
@@ -1314,25 +1286,25 @@
         <v>20</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="AD1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="13" t="s">
         <v>17</v>
@@ -1347,29 +1319,29 @@
         <v>20</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="13" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="70" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="49">
@@ -1412,15 +1384,15 @@
         <v>45778</v>
       </c>
       <c r="AE2" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="13"/>
       <c r="AI2" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="29">
         <v>2</v>
@@ -1431,11 +1403,11 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="70"/>
       <c r="F3" s="49">
         <v>45718</v>
       </c>
@@ -1471,10 +1443,10 @@
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AI3" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AJ3" s="29">
         <v>1</v>
@@ -1482,7 +1454,7 @@
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
       <c r="AM3" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AN3" s="13"/>
     </row>
@@ -1536,13 +1508,13 @@
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AH4" s="65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AI4" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ4" s="29">
         <v>1</v>
@@ -1555,7 +1527,7 @@
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="49">
@@ -1652,14 +1624,14 @@
         <v>45782</v>
       </c>
       <c r="AE6" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH6" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="29">
@@ -1667,7 +1639,7 @@
       </c>
       <c r="AK6" s="13"/>
       <c r="AL6" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
@@ -1720,18 +1692,18 @@
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AI7" s="29" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
       <c r="AL7" s="29" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
@@ -1791,24 +1763,24 @@
       </c>
       <c r="AE8" s="13"/>
       <c r="AF8" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG8" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="29" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AM8" s="29" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AN8" s="13"/>
     </row>
@@ -1863,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="28">
         <v>1</v>
@@ -1873,27 +1845,27 @@
       </c>
       <c r="AE9" s="13"/>
       <c r="AF9" s="29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
       <c r="AI9" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
       <c r="AL9" s="29" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AM9" s="29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AN9" s="13"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7"/>
       <c r="F10" s="49">
@@ -1931,21 +1903,25 @@
       </c>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
+      <c r="AG10" s="29" t="s">
+        <v>150</v>
+      </c>
       <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
+      <c r="AI10" s="29" t="s">
+        <v>151</v>
+      </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
-      <c r="AM10" s="13" t="s">
-        <v>156</v>
+      <c r="AM10" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="AN10" s="13"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7"/>
       <c r="F11" s="49">
@@ -1987,7 +1963,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AD11" s="12">
@@ -1996,8 +1972,12 @@
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
+      <c r="AH11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI11" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
@@ -2005,11 +1985,11 @@
       <c r="AN11" s="13"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
@@ -2064,9 +2044,9 @@
       <c r="AS12" s="40"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8"/>
       <c r="F13" s="54">
@@ -2116,13 +2096,15 @@
       <c r="AJ13" s="13"/>
       <c r="AK13" s="13"/>
       <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
+      <c r="AM13" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="AN13" s="13"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="8"/>
       <c r="F14" s="49">
@@ -2177,9 +2159,9 @@
       <c r="AN14" s="13"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8"/>
       <c r="F15" s="56">
@@ -2241,11 +2223,15 @@
       <c r="AN15" s="13"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="56">
         <v>45731</v>
       </c>
@@ -2295,15 +2281,11 @@
       <c r="AN16" s="13"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="F17" s="56">
         <v>45732</v>
       </c>
@@ -2331,7 +2313,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="13"/>
       <c r="AD17" s="12">
@@ -2351,7 +2333,7 @@
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6"/>
       <c r="F18" s="56">
@@ -2413,7 +2395,7 @@
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="6"/>
       <c r="F19" s="56">
@@ -2445,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AB19" s="13"/>
       <c r="AD19" s="12">
@@ -2463,11 +2445,15 @@
       <c r="AN19" s="13"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6"/>
+      <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="56">
         <v>45735</v>
       </c>
@@ -2523,14 +2509,14 @@
       <c r="AN20" s="13"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="56">
         <v>45736</v>
@@ -2581,15 +2567,11 @@
       <c r="AN21" s="13"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="F22" s="56">
         <v>45737</v>
       </c>
@@ -2617,25 +2599,25 @@
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W22" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA22" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB22" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD22" s="12">
         <v>45798</v>
@@ -2652,11 +2634,15 @@
       <c r="AN22" s="13"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="A23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="56">
         <v>45738</v>
       </c>
@@ -2680,14 +2666,14 @@
         <v>45769</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V23" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="29">
@@ -2712,15 +2698,11 @@
       <c r="AN23" s="13"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>13</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C24" s="27"/>
       <c r="F24" s="56">
         <v>45739</v>
       </c>
@@ -2735,13 +2717,13 @@
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U24" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V24" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="29">
@@ -2768,7 +2750,7 @@
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="27"/>
       <c r="F25" s="56">
@@ -2796,15 +2778,15 @@
         <v>45771</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -2828,7 +2810,7 @@
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="27"/>
       <c r="F26" s="56">
@@ -2853,10 +2835,10 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W26" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -2878,11 +2860,15 @@
       <c r="AN26" s="13"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="27"/>
+      <c r="A27" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="56">
         <v>45742</v>
       </c>
@@ -2901,23 +2887,23 @@
       </c>
       <c r="S27" s="13"/>
       <c r="T27" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="U27" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="V27" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="W27" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="29">
         <v>1</v>
       </c>
       <c r="Z27" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
@@ -2936,15 +2922,11 @@
       <c r="AN27" s="13"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="C28" s="31"/>
       <c r="F28" s="56">
         <v>45743</v>
       </c>
@@ -2992,7 +2974,7 @@
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="31"/>
       <c r="F29" s="56">
@@ -3011,12 +2993,12 @@
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -3040,7 +3022,7 @@
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" s="31"/>
       <c r="F30" s="56">
@@ -3061,14 +3043,14 @@
       </c>
       <c r="S30" s="13"/>
       <c r="T30" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W30" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -3090,11 +3072,15 @@
       <c r="AN30" s="13"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="31"/>
+      <c r="A31" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="56">
         <v>45746</v>
       </c>
@@ -3109,16 +3095,16 @@
       </c>
       <c r="S31" s="13"/>
       <c r="T31" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U31" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V31" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W31" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -3140,15 +3126,11 @@
       <c r="AN31" s="13"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>13</v>
-      </c>
+      <c r="C32" s="61"/>
       <c r="F32" s="57">
         <v>45747</v>
       </c>
@@ -3169,7 +3151,7 @@
       <c r="O32" s="58"/>
       <c r="P32" s="60"/>
       <c r="R32" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S32" s="10">
         <v>6</v>
@@ -3193,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA32" s="10">
         <v>8</v>
@@ -3218,7 +3200,7 @@
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="61"/>
       <c r="B33" s="61" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C33" s="61"/>
       <c r="H33">
@@ -3238,7 +3220,7 @@
         <v>37</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S33" s="63">
         <v>350</v>
@@ -3271,12 +3253,12 @@
         <v>50</v>
       </c>
       <c r="AD33" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R34" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S34" s="63">
         <f t="shared" ref="S34:AB34" si="0">PRODUCT(S32,S33)</f>
@@ -3319,76 +3301,76 @@
         <v>100</v>
       </c>
       <c r="AD34" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R35" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S35" s="64">
         <f>SUM(S34:AB34)</f>
         <v>27830</v>
       </c>
       <c r="AD35" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R36" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S36" s="62">
         <v>0.99</v>
       </c>
       <c r="AD36" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R37" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S37" s="10">
         <v>1</v>
       </c>
       <c r="AD37" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="AD38" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G45" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="35"/>
       <c r="Q45" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="S45" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="R45" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="S45" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="T45" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="U45" s="34"/>
       <c r="V45" s="34"/>
@@ -3437,30 +3419,30 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G48" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N48" s="41"/>
       <c r="Q48" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X48" s="41"/>
     </row>
     <row r="49" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G49" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H49" s="20">
         <v>45729</v>
       </c>
       <c r="N49" s="41"/>
       <c r="Q49" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R49" s="20">
         <v>45729</v>
@@ -3469,14 +3451,14 @@
     </row>
     <row r="50" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G50" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H50" s="20">
         <v>45730</v>
       </c>
       <c r="N50" s="41"/>
       <c r="Q50" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R50" s="20">
         <v>45730</v>
@@ -3485,14 +3467,14 @@
     </row>
     <row r="51" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G51" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H51" s="20">
         <v>45736</v>
       </c>
       <c r="N51" s="41"/>
       <c r="Q51" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R51" s="20">
         <v>45736</v>
@@ -3501,14 +3483,14 @@
     </row>
     <row r="52" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G52" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H52" s="20">
         <v>45737</v>
       </c>
       <c r="N52" s="41"/>
       <c r="Q52" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R52" s="20">
         <v>45737</v>
@@ -3517,14 +3499,14 @@
     </row>
     <row r="53" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G53" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H53" s="20">
         <v>45747</v>
       </c>
       <c r="N53" s="41"/>
       <c r="Q53" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R53" s="20">
         <v>45747</v>
@@ -3533,14 +3515,14 @@
     </row>
     <row r="54" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G54" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H54" s="20">
         <v>45748</v>
       </c>
       <c r="N54" s="41"/>
       <c r="Q54" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R54" s="20">
         <v>45748</v>
@@ -3549,7 +3531,7 @@
     </row>
     <row r="55" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G55" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H55" s="20">
         <v>45753</v>
@@ -3564,26 +3546,26 @@
       <c r="X56" s="41"/>
     </row>
     <row r="57" spans="7:24" x14ac:dyDescent="0.3">
-      <c r="G57" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="77"/>
-      <c r="Q57" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="77"/>
+      <c r="G57" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="73"/>
+      <c r="Q57" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+      <c r="X57" s="73"/>
     </row>
     <row r="58" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G58" s="45"/>
@@ -3604,23 +3586,23 @@
       <c r="X58" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="G57:N57"/>
     <mergeCell ref="Q57:X57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5C0838-86DA-4D8D-B5C7-CECDB914A541}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,36 +3611,27 @@
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="O2" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -3666,91 +3639,73 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="31"/>
-      <c r="E4" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
+      <c r="E4" s="67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="31"/>
-      <c r="O5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="31"/>
-      <c r="Q6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="74"/>
       <c r="B7" s="66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3758,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -3772,339 +3727,303 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="78"/>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="77"/>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="77"/>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="31"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>39</v>
+      <c r="D25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>69</v>
+      <c r="A27" s="27"/>
+      <c r="B27" s="68" t="s">
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="71" t="s">
-        <v>65</v>
+      <c r="A29" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>66</v>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>73</v>
-      </c>
+      <c r="A31" s="31"/>
       <c r="B31" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61" t="s">
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="69" t="s">
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A19"/>
     <mergeCell ref="C2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,7 +4035,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4126,10 +4045,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4137,111 +4056,111 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="20">
         <v>45724</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="20">
         <v>45729</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="20">
         <v>45730</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="20">
         <v>45736</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="20">
         <v>45737</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="20">
         <v>45747</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="20">
         <v>45748</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="20">
         <v>45753</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="20">
         <v>45761</v>
@@ -4249,7 +4168,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="20">
         <v>45773</v>
